--- a/app_kit/tests/TESTS_ROOT/xlsx_for_testing/TaxonProfiles/valid_partial_update/Taxon profiles.xlsx
+++ b/app_kit/tests/TESTS_ROOT/xlsx_for_testing/TaxonProfiles/valid_partial_update/Taxon profiles.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Taxon Profiles" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Taxon Profile Images" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="External Media" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t xml:space="preserve">Scientific Name</t>
   </si>
@@ -35,9 +36,15 @@
     <t xml:space="preserve">Morphotype (optional)</t>
   </si>
   <si>
+    <t xml:space="preserve">external_media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interesting facts</t>
   </si>
   <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quercus robur</t>
   </si>
   <si>
@@ -47,6 +54,9 @@
     <t xml:space="preserve">Quercus robur Interesting facts updated</t>
   </si>
   <si>
+    <t xml:space="preserve">https://code-for-nature.com/images/Biodiversity-illustration-screen-sm.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraxinus excelsior</t>
   </si>
   <si>
@@ -102,6 +112,78 @@
   </si>
   <si>
     <t xml:space="preserve">Leaf alt text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licence (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity illustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external media author update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external media caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external media alt text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=v5ekOVJ5uzU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patchwork Cuttlefish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://samplelib.com/lib/preview/mp3/sample-3s.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://samplelib.com/lib/preview/wav/sample-3s.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file-examples.com/storage/fe42043ddc68bdea5933232/2017/10/file-sample_150kB.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://code-for-nature.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample website</t>
   </si>
 </sst>
 </file>
@@ -112,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,6 +219,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -203,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,15 +318,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="fill" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="fill" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -262,6 +355,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -447,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMD27"/>
+  <dimension ref="A1:ALX27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,6 +556,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="38.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="47.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="62.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -475,7 +573,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1482,12 +1582,6 @@
       <c r="ALV1" s="5"/>
       <c r="ALW1" s="5"/>
       <c r="ALX1" s="5"/>
-      <c r="ALY1" s="5"/>
-      <c r="ALZ1" s="5"/>
-      <c r="AMA1" s="5"/>
-      <c r="AMB1" s="5"/>
-      <c r="AMC1" s="5"/>
-      <c r="AMD1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -1495,9 +1589,11 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2504,12 +2600,6 @@
       <c r="ALV2" s="5"/>
       <c r="ALW2" s="5"/>
       <c r="ALX2" s="5"/>
-      <c r="ALY2" s="5"/>
-      <c r="ALZ2" s="5"/>
-      <c r="AMA2" s="5"/>
-      <c r="AMB2" s="5"/>
-      <c r="AMC2" s="5"/>
-      <c r="AMD2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -3524,102 +3614,103 @@
       <c r="ALV3" s="5"/>
       <c r="ALW3" s="5"/>
       <c r="ALX3" s="5"/>
-      <c r="ALY3" s="5"/>
-      <c r="ALZ3" s="5"/>
-      <c r="AMA3" s="5"/>
-      <c r="AMB3" s="5"/>
-      <c r="AMC3" s="5"/>
-      <c r="AMD3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3647,7 +3738,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="29.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="42.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.51"/>
@@ -3657,58 +3748,59 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3719,4 +3811,159 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="84.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="22.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://samplelib.com/lib/preview/wav/sample-3s.wav"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://code-for-nature.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>